--- a/data/pca/factorExposure/factorExposure_2011-09-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02165606240166916</v>
+        <v>0.01804724254693115</v>
       </c>
       <c r="C2">
-        <v>0.002750907231013084</v>
+        <v>-0.004757339578479409</v>
       </c>
       <c r="D2">
-        <v>-0.05286377489982604</v>
+        <v>-0.04245857616010435</v>
       </c>
       <c r="E2">
-        <v>0.05587285126726051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02539504328149963</v>
+      </c>
+      <c r="F2">
+        <v>0.02926885587161044</v>
+      </c>
+      <c r="G2">
+        <v>0.01725968564723076</v>
+      </c>
+      <c r="H2">
+        <v>0.003890265686201018</v>
+      </c>
+      <c r="I2">
+        <v>-0.017153320268723</v>
+      </c>
+      <c r="J2">
+        <v>-0.06107053618918407</v>
+      </c>
+      <c r="K2">
+        <v>-0.08860042369731308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.08850613676915697</v>
+        <v>0.09868795394006669</v>
       </c>
       <c r="C4">
-        <v>-0.04830109935688141</v>
+        <v>-0.05360470063106913</v>
       </c>
       <c r="D4">
-        <v>-0.05805493405402232</v>
+        <v>-0.03515435537846925</v>
       </c>
       <c r="E4">
-        <v>0.02845397791024134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02224632458539216</v>
+      </c>
+      <c r="F4">
+        <v>0.07750394590034775</v>
+      </c>
+      <c r="G4">
+        <v>-0.03036153587363112</v>
+      </c>
+      <c r="H4">
+        <v>0.004072352827674109</v>
+      </c>
+      <c r="I4">
+        <v>0.09181362738037076</v>
+      </c>
+      <c r="J4">
+        <v>0.03702830770870429</v>
+      </c>
+      <c r="K4">
+        <v>0.04563699392347159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.120640432894455</v>
+        <v>0.1303322963445383</v>
       </c>
       <c r="C6">
-        <v>0.009530275425396063</v>
+        <v>-0.0037055698116402</v>
       </c>
       <c r="D6">
-        <v>-0.03541164223662933</v>
+        <v>-0.050243164851333</v>
       </c>
       <c r="E6">
-        <v>0.05549274749195892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02984786268687096</v>
+      </c>
+      <c r="F6">
+        <v>0.02029139005452057</v>
+      </c>
+      <c r="G6">
+        <v>-0.04156651826341485</v>
+      </c>
+      <c r="H6">
+        <v>-0.1966358962753236</v>
+      </c>
+      <c r="I6">
+        <v>-0.009673042450241514</v>
+      </c>
+      <c r="J6">
+        <v>0.4394603904524512</v>
+      </c>
+      <c r="K6">
+        <v>0.04810836135022584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07245528606686959</v>
+        <v>0.07158099363642134</v>
       </c>
       <c r="C7">
-        <v>-0.00832845847730539</v>
+        <v>-0.04571119623821268</v>
       </c>
       <c r="D7">
-        <v>-0.07624523085822561</v>
+        <v>-0.0643326662207265</v>
       </c>
       <c r="E7">
-        <v>0.05765676899229837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.026776454330806</v>
+      </c>
+      <c r="F7">
+        <v>0.04965192636485764</v>
+      </c>
+      <c r="G7">
+        <v>0.009200826935206035</v>
+      </c>
+      <c r="H7">
+        <v>0.01287932157319162</v>
+      </c>
+      <c r="I7">
+        <v>0.03804025293881574</v>
+      </c>
+      <c r="J7">
+        <v>-0.07175716283170676</v>
+      </c>
+      <c r="K7">
+        <v>0.05628209539063656</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04210087933283879</v>
+        <v>0.0427085436992135</v>
       </c>
       <c r="C8">
-        <v>-0.06318948109439522</v>
+        <v>-0.03036739121925281</v>
       </c>
       <c r="D8">
-        <v>-0.004100821678023977</v>
+        <v>0.01581228724967318</v>
       </c>
       <c r="E8">
-        <v>0.05263511039199847</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.05240019662915359</v>
+      </c>
+      <c r="F8">
+        <v>0.06054721136521297</v>
+      </c>
+      <c r="G8">
+        <v>-0.05229197375478622</v>
+      </c>
+      <c r="H8">
+        <v>-0.03241132243269196</v>
+      </c>
+      <c r="I8">
+        <v>0.115523944202025</v>
+      </c>
+      <c r="J8">
+        <v>0.01910773793550886</v>
+      </c>
+      <c r="K8">
+        <v>0.04047870894286282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07946948396825945</v>
+        <v>0.08661405421559798</v>
       </c>
       <c r="C9">
-        <v>-0.05484271646153166</v>
+        <v>-0.05377278225479951</v>
       </c>
       <c r="D9">
-        <v>-0.05603367398476237</v>
+        <v>-0.03339292935513358</v>
       </c>
       <c r="E9">
-        <v>0.02149918832920376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01701143891247784</v>
+      </c>
+      <c r="F9">
+        <v>0.06234978264297585</v>
+      </c>
+      <c r="G9">
+        <v>-0.04811241921889544</v>
+      </c>
+      <c r="H9">
+        <v>0.002510367194686177</v>
+      </c>
+      <c r="I9">
+        <v>0.08985744575729641</v>
+      </c>
+      <c r="J9">
+        <v>0.03473339373082221</v>
+      </c>
+      <c r="K9">
+        <v>0.03749356828951984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02237611723315833</v>
+        <v>0.06239154691254296</v>
       </c>
       <c r="C10">
-        <v>0.1676451008513304</v>
+        <v>0.1995617477147294</v>
       </c>
       <c r="D10">
-        <v>0.03952082654578975</v>
+        <v>-0.009791347804430384</v>
       </c>
       <c r="E10">
-        <v>0.07630777532114791</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0414224986907873</v>
+      </c>
+      <c r="F10">
+        <v>0.03743180340749151</v>
+      </c>
+      <c r="G10">
+        <v>0.037952744976406</v>
+      </c>
+      <c r="H10">
+        <v>-0.02323628466673026</v>
+      </c>
+      <c r="I10">
+        <v>-0.06268129171036473</v>
+      </c>
+      <c r="J10">
+        <v>-0.0159571799639925</v>
+      </c>
+      <c r="K10">
+        <v>-0.02064672006844793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07550215950107879</v>
+        <v>0.07720347957954329</v>
       </c>
       <c r="C11">
-        <v>-0.04618326652036897</v>
+        <v>-0.05504077752339344</v>
       </c>
       <c r="D11">
-        <v>-0.0505440989922453</v>
+        <v>-0.03522723134361744</v>
       </c>
       <c r="E11">
-        <v>0.03850950625801041</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02467730143392395</v>
+      </c>
+      <c r="F11">
+        <v>0.02671370943489242</v>
+      </c>
+      <c r="G11">
+        <v>-0.06567648117252699</v>
+      </c>
+      <c r="H11">
+        <v>0.02307618891253961</v>
+      </c>
+      <c r="I11">
+        <v>0.07096620120862078</v>
+      </c>
+      <c r="J11">
+        <v>-0.0318555296875653</v>
+      </c>
+      <c r="K11">
+        <v>-0.02415281171866187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07498883078153203</v>
+        <v>0.07548591773192236</v>
       </c>
       <c r="C12">
-        <v>-0.02763759810712294</v>
+        <v>-0.04273242095278445</v>
       </c>
       <c r="D12">
-        <v>-0.05371226987034609</v>
+        <v>-0.03349637592799469</v>
       </c>
       <c r="E12">
-        <v>0.02511665643290563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.009037554792017313</v>
+      </c>
+      <c r="F12">
+        <v>0.03300791361470692</v>
+      </c>
+      <c r="G12">
+        <v>-0.03828671711201101</v>
+      </c>
+      <c r="H12">
+        <v>-0.006541166630532049</v>
+      </c>
+      <c r="I12">
+        <v>0.08877555745177991</v>
+      </c>
+      <c r="J12">
+        <v>-0.03595460507455975</v>
+      </c>
+      <c r="K12">
+        <v>-0.006834007380845233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.08019889594006309</v>
+        <v>0.07022345531594035</v>
       </c>
       <c r="C13">
-        <v>-0.0389023745808515</v>
+        <v>-0.03862311143716265</v>
       </c>
       <c r="D13">
-        <v>-0.03603184594453238</v>
+        <v>0.002023657376618549</v>
       </c>
       <c r="E13">
-        <v>0.01339468762522825</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0003628477218785319</v>
+      </c>
+      <c r="F13">
+        <v>0.05070339976391498</v>
+      </c>
+      <c r="G13">
+        <v>-0.02245306205087257</v>
+      </c>
+      <c r="H13">
+        <v>0.01170426152940816</v>
+      </c>
+      <c r="I13">
+        <v>0.09670817676437787</v>
+      </c>
+      <c r="J13">
+        <v>-0.04762093714665882</v>
+      </c>
+      <c r="K13">
+        <v>0.05093183203562427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03470194911344572</v>
+        <v>0.04402666142157304</v>
       </c>
       <c r="C14">
-        <v>0.002703412884740226</v>
+        <v>-0.008380452963833567</v>
       </c>
       <c r="D14">
-        <v>-0.02295554224050636</v>
+        <v>-0.02916002466033402</v>
       </c>
       <c r="E14">
-        <v>0.006470868686943408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0007166264775416262</v>
+      </c>
+      <c r="F14">
+        <v>0.03008151491224268</v>
+      </c>
+      <c r="G14">
+        <v>-0.04414420012643992</v>
+      </c>
+      <c r="H14">
+        <v>0.04965898358596947</v>
+      </c>
+      <c r="I14">
+        <v>0.06822307312214718</v>
+      </c>
+      <c r="J14">
+        <v>0.03828294548855118</v>
+      </c>
+      <c r="K14">
+        <v>0.05266918378114156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05248253471526381</v>
+        <v>0.04367631879266248</v>
       </c>
       <c r="C15">
-        <v>-0.01949810265405824</v>
+        <v>-0.0176972050696993</v>
       </c>
       <c r="D15">
-        <v>-0.01079133928299094</v>
+        <v>0.01087276162404199</v>
       </c>
       <c r="E15">
-        <v>0.001915480502487539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.016206117172164</v>
+      </c>
+      <c r="F15">
+        <v>0.04171058284271171</v>
+      </c>
+      <c r="G15">
+        <v>-0.02943440324417542</v>
+      </c>
+      <c r="H15">
+        <v>0.01262169969757829</v>
+      </c>
+      <c r="I15">
+        <v>0.02939814928090365</v>
+      </c>
+      <c r="J15">
+        <v>0.02500391344865199</v>
+      </c>
+      <c r="K15">
+        <v>0.08208051875318216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06654000402249771</v>
+        <v>0.07585446688843124</v>
       </c>
       <c r="C16">
-        <v>-0.04216140418155832</v>
+        <v>-0.05391153758155932</v>
       </c>
       <c r="D16">
-        <v>-0.05894734761198039</v>
+        <v>-0.04265001201806755</v>
       </c>
       <c r="E16">
-        <v>0.02755661978806669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.01069321213218425</v>
+      </c>
+      <c r="F16">
+        <v>0.04055596083580745</v>
+      </c>
+      <c r="G16">
+        <v>-0.03688106495657716</v>
+      </c>
+      <c r="H16">
+        <v>0.01529076359379953</v>
+      </c>
+      <c r="I16">
+        <v>0.04489716454264196</v>
+      </c>
+      <c r="J16">
+        <v>-0.0238672596995303</v>
+      </c>
+      <c r="K16">
+        <v>-0.005750743018562918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06903287604208513</v>
+        <v>0.06382137942194216</v>
       </c>
       <c r="C20">
-        <v>-0.04248428494905386</v>
+        <v>-0.03834742245007839</v>
       </c>
       <c r="D20">
-        <v>-0.03415184710446324</v>
+        <v>-0.01421540876520538</v>
       </c>
       <c r="E20">
-        <v>0.024874485943043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02014504772302056</v>
+      </c>
+      <c r="F20">
+        <v>0.02417204807457603</v>
+      </c>
+      <c r="G20">
+        <v>-0.02942823993389772</v>
+      </c>
+      <c r="H20">
+        <v>0.0294306480633235</v>
+      </c>
+      <c r="I20">
+        <v>0.1120161581581976</v>
+      </c>
+      <c r="J20">
+        <v>-0.01586126607710196</v>
+      </c>
+      <c r="K20">
+        <v>0.02342833694073209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.04022547889450077</v>
+        <v>0.03271511866161846</v>
       </c>
       <c r="C21">
-        <v>-0.01607665756077096</v>
+        <v>-0.02131268529372763</v>
       </c>
       <c r="D21">
-        <v>0.008489619283687662</v>
+        <v>0.01934799170304016</v>
       </c>
       <c r="E21">
-        <v>-7.445284340412655e-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0170910581494067</v>
+      </c>
+      <c r="F21">
+        <v>0.02143615379148933</v>
+      </c>
+      <c r="G21">
+        <v>-0.003063731417236084</v>
+      </c>
+      <c r="H21">
+        <v>-0.07363963674798825</v>
+      </c>
+      <c r="I21">
+        <v>0.02553875453464792</v>
+      </c>
+      <c r="J21">
+        <v>0.01898690623079113</v>
+      </c>
+      <c r="K21">
+        <v>0.03208983486908787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1103152900202157</v>
+        <v>0.0916007654965046</v>
       </c>
       <c r="C22">
-        <v>-0.09449749595839292</v>
+        <v>-0.06278268975431379</v>
       </c>
       <c r="D22">
-        <v>-0.02122375093495302</v>
+        <v>0.175828868977297</v>
       </c>
       <c r="E22">
-        <v>0.0111226863718851</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.1479033755064079</v>
+      </c>
+      <c r="F22">
+        <v>0.4893152980011719</v>
+      </c>
+      <c r="G22">
+        <v>0.3193700868364236</v>
+      </c>
+      <c r="H22">
+        <v>-0.04215189828652328</v>
+      </c>
+      <c r="I22">
+        <v>-0.232800313739385</v>
+      </c>
+      <c r="J22">
+        <v>-0.03158563461862486</v>
+      </c>
+      <c r="K22">
+        <v>-0.05460138213696435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1112418719351789</v>
+        <v>0.09253859146834506</v>
       </c>
       <c r="C23">
-        <v>-0.09414477708430423</v>
+        <v>-0.06321787036250932</v>
       </c>
       <c r="D23">
-        <v>-0.02243887431100922</v>
+        <v>0.1752175372072039</v>
       </c>
       <c r="E23">
-        <v>0.01248715489832412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.1480485260008056</v>
+      </c>
+      <c r="F23">
+        <v>0.4938445549424022</v>
+      </c>
+      <c r="G23">
+        <v>0.3140423738767649</v>
+      </c>
+      <c r="H23">
+        <v>-0.04141859104931897</v>
+      </c>
+      <c r="I23">
+        <v>-0.2353608226954128</v>
+      </c>
+      <c r="J23">
+        <v>-0.02608611862119007</v>
+      </c>
+      <c r="K23">
+        <v>-0.05473306318121065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08631122035178079</v>
+        <v>0.08581058066114429</v>
       </c>
       <c r="C24">
-        <v>-0.04402543966202219</v>
+        <v>-0.05293158316399213</v>
       </c>
       <c r="D24">
-        <v>-0.05147918667794302</v>
+        <v>-0.03073858757910622</v>
       </c>
       <c r="E24">
-        <v>0.04195217987164324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02076564636982525</v>
+      </c>
+      <c r="F24">
+        <v>0.04385063644675381</v>
+      </c>
+      <c r="G24">
+        <v>-0.05490057335220704</v>
+      </c>
+      <c r="H24">
+        <v>-0.002223225118119419</v>
+      </c>
+      <c r="I24">
+        <v>0.06087465012165496</v>
+      </c>
+      <c r="J24">
+        <v>-0.0128223015786137</v>
+      </c>
+      <c r="K24">
+        <v>-0.01040090942507381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08228952430516381</v>
+        <v>0.07957404888394116</v>
       </c>
       <c r="C25">
-        <v>-0.04057162355185982</v>
+        <v>-0.04579170969995532</v>
       </c>
       <c r="D25">
-        <v>-0.0610605343617279</v>
+        <v>-0.03636488565612502</v>
       </c>
       <c r="E25">
-        <v>0.04353620039876426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01131705690454181</v>
+      </c>
+      <c r="F25">
+        <v>0.04802848032492586</v>
+      </c>
+      <c r="G25">
+        <v>-0.05507411907715064</v>
+      </c>
+      <c r="H25">
+        <v>0.006568369930028703</v>
+      </c>
+      <c r="I25">
+        <v>0.07929613491524298</v>
+      </c>
+      <c r="J25">
+        <v>-0.0164730539776394</v>
+      </c>
+      <c r="K25">
+        <v>-0.02387375551267436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05001047888165727</v>
+        <v>0.04564530255976448</v>
       </c>
       <c r="C26">
-        <v>-0.02159624317632462</v>
+        <v>-0.02289228657929294</v>
       </c>
       <c r="D26">
-        <v>0.002278209594239865</v>
+        <v>0.0226799075193366</v>
       </c>
       <c r="E26">
-        <v>0.03243049332651213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009585808346247561</v>
+      </c>
+      <c r="F26">
+        <v>0.03257914054732268</v>
+      </c>
+      <c r="G26">
+        <v>-0.02321858274205016</v>
+      </c>
+      <c r="H26">
+        <v>0.02334593102970538</v>
+      </c>
+      <c r="I26">
+        <v>0.00903868624227727</v>
+      </c>
+      <c r="J26">
+        <v>0.008407175908898846</v>
+      </c>
+      <c r="K26">
+        <v>0.1187763696730554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.04354402720754571</v>
+        <v>0.07645916430818113</v>
       </c>
       <c r="C28">
-        <v>0.2781920138693028</v>
+        <v>0.2950628384325995</v>
       </c>
       <c r="D28">
-        <v>0.0785990943568622</v>
+        <v>0.02174974281116483</v>
       </c>
       <c r="E28">
-        <v>0.08223036745517288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.03232974264006663</v>
+      </c>
+      <c r="F28">
+        <v>0.02549709868642088</v>
+      </c>
+      <c r="G28">
+        <v>-0.02826176708529318</v>
+      </c>
+      <c r="H28">
+        <v>-0.04398974803081528</v>
+      </c>
+      <c r="I28">
+        <v>-0.02850444395558165</v>
+      </c>
+      <c r="J28">
+        <v>-0.01076857057544967</v>
+      </c>
+      <c r="K28">
+        <v>0.07314648056977076</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05769956800446354</v>
+        <v>0.05567805389667552</v>
       </c>
       <c r="C29">
-        <v>0.01175508240745523</v>
+        <v>-0.007124424960013506</v>
       </c>
       <c r="D29">
-        <v>-0.03272994265335913</v>
+        <v>-0.02871591154299725</v>
       </c>
       <c r="E29">
-        <v>0.02411179946720955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00581176133782931</v>
+      </c>
+      <c r="F29">
+        <v>0.0451533728175968</v>
+      </c>
+      <c r="G29">
+        <v>-0.03185922629757723</v>
+      </c>
+      <c r="H29">
+        <v>0.06385455764036625</v>
+      </c>
+      <c r="I29">
+        <v>0.04654693489485479</v>
+      </c>
+      <c r="J29">
+        <v>0.01478053367339953</v>
+      </c>
+      <c r="K29">
+        <v>0.04887095447360172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1539146646803963</v>
+        <v>0.133643664534607</v>
       </c>
       <c r="C30">
-        <v>-0.05884954203613144</v>
+        <v>-0.05520554559413713</v>
       </c>
       <c r="D30">
-        <v>-0.08125777955961652</v>
+        <v>-0.02823682164615657</v>
       </c>
       <c r="E30">
-        <v>0.03957831945219656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02007876641865133</v>
+      </c>
+      <c r="F30">
+        <v>0.1201854308012296</v>
+      </c>
+      <c r="G30">
+        <v>-0.0524183171066195</v>
+      </c>
+      <c r="H30">
+        <v>-0.08386465078088194</v>
+      </c>
+      <c r="I30">
+        <v>0.3207817407583657</v>
+      </c>
+      <c r="J30">
+        <v>-0.115228373195498</v>
+      </c>
+      <c r="K30">
+        <v>0.1361435808178877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05701956466577367</v>
+        <v>0.04829409479381229</v>
       </c>
       <c r="C31">
-        <v>-0.01137787705242996</v>
+        <v>-0.03423396667978838</v>
       </c>
       <c r="D31">
-        <v>-0.02943324532735203</v>
+        <v>-0.01459033626804184</v>
       </c>
       <c r="E31">
-        <v>0.01029979795981457</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007761452034642667</v>
+      </c>
+      <c r="F31">
+        <v>0.02489858154738326</v>
+      </c>
+      <c r="G31">
+        <v>-0.008629457165743233</v>
+      </c>
+      <c r="H31">
+        <v>0.055890547170992</v>
+      </c>
+      <c r="I31">
+        <v>0.03968496701831556</v>
+      </c>
+      <c r="J31">
+        <v>0.02579162578977705</v>
+      </c>
+      <c r="K31">
+        <v>0.02372706405934664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04715665782928227</v>
+        <v>0.04877719775934802</v>
       </c>
       <c r="C32">
-        <v>-0.02232410003557999</v>
+        <v>-0.002811052193072926</v>
       </c>
       <c r="D32">
-        <v>-0.01256541647629643</v>
+        <v>0.02292143870311188</v>
       </c>
       <c r="E32">
-        <v>-0.004665910213602942</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02995785704374699</v>
+      </c>
+      <c r="F32">
+        <v>0.07779120818218875</v>
+      </c>
+      <c r="G32">
+        <v>-0.004040024464321773</v>
+      </c>
+      <c r="H32">
+        <v>-0.003887157898780763</v>
+      </c>
+      <c r="I32">
+        <v>-0.0155190772073199</v>
+      </c>
+      <c r="J32">
+        <v>-0.06912876998422603</v>
+      </c>
+      <c r="K32">
+        <v>0.0985085904860621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1029207319202839</v>
+        <v>0.1018988144435227</v>
       </c>
       <c r="C33">
-        <v>-0.03152892177305441</v>
+        <v>-0.04854472418348887</v>
       </c>
       <c r="D33">
-        <v>-0.04405442116770421</v>
+        <v>-0.01486762580804098</v>
       </c>
       <c r="E33">
-        <v>0.01176377006759428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01352000786102465</v>
+      </c>
+      <c r="F33">
+        <v>0.03389061869235574</v>
+      </c>
+      <c r="G33">
+        <v>-0.01680966906315598</v>
+      </c>
+      <c r="H33">
+        <v>0.03000157950930545</v>
+      </c>
+      <c r="I33">
+        <v>0.07744337874767677</v>
+      </c>
+      <c r="J33">
+        <v>0.00980206482686518</v>
+      </c>
+      <c r="K33">
+        <v>0.02830368900554837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06631841289806696</v>
+        <v>0.07174892739260903</v>
       </c>
       <c r="C34">
-        <v>-0.04900040438801109</v>
+        <v>-0.04624105162205703</v>
       </c>
       <c r="D34">
-        <v>-0.03923530835659073</v>
+        <v>-0.02188451937375626</v>
       </c>
       <c r="E34">
-        <v>0.01859091139638109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009418283763544548</v>
+      </c>
+      <c r="F34">
+        <v>0.02775062225808919</v>
+      </c>
+      <c r="G34">
+        <v>-0.03794611708069408</v>
+      </c>
+      <c r="H34">
+        <v>0.02098589729889741</v>
+      </c>
+      <c r="I34">
+        <v>0.05103057824968413</v>
+      </c>
+      <c r="J34">
+        <v>0.001110169404138571</v>
+      </c>
+      <c r="K34">
+        <v>-0.03464944369569222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04241460370214998</v>
+        <v>0.03876953343680186</v>
       </c>
       <c r="C35">
-        <v>-0.007492890899251306</v>
+        <v>-0.01638912307746419</v>
       </c>
       <c r="D35">
-        <v>-0.01924717195455381</v>
+        <v>-0.01220773605648096</v>
       </c>
       <c r="E35">
-        <v>-0.008614398471591492</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.02126608953069488</v>
+      </c>
+      <c r="F35">
+        <v>0.008818238596085277</v>
+      </c>
+      <c r="G35">
+        <v>-0.01127132506819362</v>
+      </c>
+      <c r="H35">
+        <v>0.02309949042325684</v>
+      </c>
+      <c r="I35">
+        <v>0.0489035199997073</v>
+      </c>
+      <c r="J35">
+        <v>-0.006004765855341568</v>
+      </c>
+      <c r="K35">
+        <v>0.008540995699393809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03696836463122576</v>
+        <v>0.03313512458975756</v>
       </c>
       <c r="C36">
-        <v>-0.01845181019052499</v>
+        <v>-0.01609128591562246</v>
       </c>
       <c r="D36">
-        <v>-0.01339659427490894</v>
+        <v>0.002926357193842376</v>
       </c>
       <c r="E36">
-        <v>0.02903324691529989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01444931681889777</v>
+      </c>
+      <c r="F36">
+        <v>0.04320322275437238</v>
+      </c>
+      <c r="G36">
+        <v>-0.02365493158912473</v>
+      </c>
+      <c r="H36">
+        <v>0.01534150505810751</v>
+      </c>
+      <c r="I36">
+        <v>0.06125092813193161</v>
+      </c>
+      <c r="J36">
+        <v>0.002048871351261678</v>
+      </c>
+      <c r="K36">
+        <v>0.03927920961557427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06347590821315409</v>
+        <v>0.05366152552775429</v>
       </c>
       <c r="C38">
-        <v>-0.005653410279926964</v>
+        <v>-0.02546464527925042</v>
       </c>
       <c r="D38">
-        <v>0.01899265321474898</v>
+        <v>0.0271913646898047</v>
       </c>
       <c r="E38">
-        <v>-0.01982375692730142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001016827351452047</v>
+      </c>
+      <c r="F38">
+        <v>0.01188295955641198</v>
+      </c>
+      <c r="G38">
+        <v>0.005627691038306816</v>
+      </c>
+      <c r="H38">
+        <v>0.01699929438379539</v>
+      </c>
+      <c r="I38">
+        <v>-0.01554590116960376</v>
+      </c>
+      <c r="J38">
+        <v>-0.03468201389617585</v>
+      </c>
+      <c r="K38">
+        <v>0.05764313222840995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09483252792705636</v>
+        <v>0.09977287812524684</v>
       </c>
       <c r="C39">
-        <v>-0.02660043283665867</v>
+        <v>-0.04408590367808604</v>
       </c>
       <c r="D39">
-        <v>-0.05351888397472632</v>
+        <v>-0.03779850037971445</v>
       </c>
       <c r="E39">
-        <v>0.003233027595585627</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.003589777579144868</v>
+      </c>
+      <c r="F39">
+        <v>0.04221664411161151</v>
+      </c>
+      <c r="G39">
+        <v>-0.04154826722442159</v>
+      </c>
+      <c r="H39">
+        <v>0.0002915773371332791</v>
+      </c>
+      <c r="I39">
+        <v>0.07058134970497296</v>
+      </c>
+      <c r="J39">
+        <v>-0.1286187845410764</v>
+      </c>
+      <c r="K39">
+        <v>-0.01739520365845932</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07592291583757126</v>
+        <v>0.05259555465101359</v>
       </c>
       <c r="C40">
-        <v>-0.0152549063847424</v>
+        <v>-0.04215781376702786</v>
       </c>
       <c r="D40">
-        <v>-0.02631174611412545</v>
+        <v>0.02480615025411004</v>
       </c>
       <c r="E40">
-        <v>0.001402197658812495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.03109580569386019</v>
+      </c>
+      <c r="F40">
+        <v>0.05823014806264083</v>
+      </c>
+      <c r="G40">
+        <v>-0.04655750196975064</v>
+      </c>
+      <c r="H40">
+        <v>-0.08456512769805098</v>
+      </c>
+      <c r="I40">
+        <v>0.1691335091585291</v>
+      </c>
+      <c r="J40">
+        <v>-0.2463642724606219</v>
+      </c>
+      <c r="K40">
+        <v>-0.01419173477709045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.0610813572931859</v>
+        <v>0.04897915357592639</v>
       </c>
       <c r="C41">
-        <v>-0.03125825419346191</v>
+        <v>-0.03859376775035056</v>
       </c>
       <c r="D41">
-        <v>-0.003474114938061879</v>
+        <v>0.008481407262587627</v>
       </c>
       <c r="E41">
-        <v>-0.0254374423912841</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.00568133810171775</v>
+      </c>
+      <c r="F41">
+        <v>-0.01938788424997964</v>
+      </c>
+      <c r="G41">
+        <v>-0.02508724497392911</v>
+      </c>
+      <c r="H41">
+        <v>0.03153647131910035</v>
+      </c>
+      <c r="I41">
+        <v>0.0277651901943541</v>
+      </c>
+      <c r="J41">
+        <v>-0.04321449768904088</v>
+      </c>
+      <c r="K41">
+        <v>0.02857602330592783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06285723239923155</v>
+        <v>0.06282357653836261</v>
       </c>
       <c r="C43">
-        <v>-0.006846531783612012</v>
+        <v>-0.03237537048653478</v>
       </c>
       <c r="D43">
-        <v>-0.02623932242790503</v>
+        <v>-0.01898092782456604</v>
       </c>
       <c r="E43">
-        <v>0.01402832530060859</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.006418110768312132</v>
+      </c>
+      <c r="F43">
+        <v>0.01960936131873417</v>
+      </c>
+      <c r="G43">
+        <v>0.0004085799915513737</v>
+      </c>
+      <c r="H43">
+        <v>0.05184319133139072</v>
+      </c>
+      <c r="I43">
+        <v>0.01927088040778304</v>
+      </c>
+      <c r="J43">
+        <v>-0.01623925464932599</v>
+      </c>
+      <c r="K43">
+        <v>0.01009046114476859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09421476166069287</v>
+        <v>0.09571708208833099</v>
       </c>
       <c r="C44">
-        <v>-0.04965025214897525</v>
+        <v>-0.05332561589600743</v>
       </c>
       <c r="D44">
-        <v>-0.04024259336654162</v>
+        <v>-0.006630800148798453</v>
       </c>
       <c r="E44">
-        <v>0.07486647708393013</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.05805076705258134</v>
+      </c>
+      <c r="F44">
+        <v>0.1284568921635706</v>
+      </c>
+      <c r="G44">
+        <v>-0.07461024266611715</v>
+      </c>
+      <c r="H44">
+        <v>0.02367862193226503</v>
+      </c>
+      <c r="I44">
+        <v>0.1256428666220817</v>
+      </c>
+      <c r="J44">
+        <v>-0.06729970763757795</v>
+      </c>
+      <c r="K44">
+        <v>-0.01943790489264569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03494561202270457</v>
+        <v>0.04661066032395782</v>
       </c>
       <c r="C46">
-        <v>-0.02270696059881962</v>
+        <v>-0.02942826237922842</v>
       </c>
       <c r="D46">
-        <v>-0.02305891409863356</v>
+        <v>-0.01770734493841762</v>
       </c>
       <c r="E46">
-        <v>0.01799409013422821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.007522512314390168</v>
+      </c>
+      <c r="F46">
+        <v>0.04494988665449921</v>
+      </c>
+      <c r="G46">
+        <v>-0.003459972268287863</v>
+      </c>
+      <c r="H46">
+        <v>0.01188946827527597</v>
+      </c>
+      <c r="I46">
+        <v>0.01974256545482305</v>
+      </c>
+      <c r="J46">
+        <v>0.03026259709858809</v>
+      </c>
+      <c r="K46">
+        <v>0.04913666164334336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04138653492941135</v>
+        <v>0.04903195129111888</v>
       </c>
       <c r="C47">
-        <v>0.01145298749576668</v>
+        <v>-0.004594635552500973</v>
       </c>
       <c r="D47">
-        <v>-0.008242780590513362</v>
+        <v>-0.003377873627747393</v>
       </c>
       <c r="E47">
-        <v>0.0148255353236316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.017286619145681</v>
+      </c>
+      <c r="F47">
+        <v>0.03701944978966713</v>
+      </c>
+      <c r="G47">
+        <v>0.01638082107430927</v>
+      </c>
+      <c r="H47">
+        <v>0.01803344411098987</v>
+      </c>
+      <c r="I47">
+        <v>0.03281175981174754</v>
+      </c>
+      <c r="J47">
+        <v>0.03387085881433995</v>
+      </c>
+      <c r="K47">
+        <v>-0.007176782362937728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04780653082593122</v>
+        <v>0.04364113086923507</v>
       </c>
       <c r="C48">
-        <v>-0.02175562027652415</v>
+        <v>-0.01706270241353724</v>
       </c>
       <c r="D48">
-        <v>-0.02815447164022658</v>
+        <v>0.005832845528598101</v>
       </c>
       <c r="E48">
-        <v>0.02517234987356133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01132039470368497</v>
+      </c>
+      <c r="F48">
+        <v>0.05167864400354543</v>
+      </c>
+      <c r="G48">
+        <v>-0.01133006979730001</v>
+      </c>
+      <c r="H48">
+        <v>-0.0004134354688524646</v>
+      </c>
+      <c r="I48">
+        <v>0.04813983943084137</v>
+      </c>
+      <c r="J48">
+        <v>0.004602921027028401</v>
+      </c>
+      <c r="K48">
+        <v>0.03841331338596433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1542607855571131</v>
+        <v>0.2034409213386084</v>
       </c>
       <c r="C49">
-        <v>0.02151382680074925</v>
+        <v>-0.004726833552368591</v>
       </c>
       <c r="D49">
-        <v>-0.06300120921091829</v>
+        <v>-0.129046860169839</v>
       </c>
       <c r="E49">
-        <v>0.005384209189394111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.04913387443693081</v>
+      </c>
+      <c r="F49">
+        <v>-0.1484177240298574</v>
+      </c>
+      <c r="G49">
+        <v>0.1305394642097198</v>
+      </c>
+      <c r="H49">
+        <v>-0.1705845484691705</v>
+      </c>
+      <c r="I49">
+        <v>-0.08338874244624338</v>
+      </c>
+      <c r="J49">
+        <v>0.001601405295476374</v>
+      </c>
+      <c r="K49">
+        <v>-0.07628777923524308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06120305766787398</v>
+        <v>0.05508419153214342</v>
       </c>
       <c r="C50">
-        <v>-0.01676075532391324</v>
+        <v>-0.02994972349854584</v>
       </c>
       <c r="D50">
-        <v>-0.03536452186672529</v>
+        <v>-0.01721697111419854</v>
       </c>
       <c r="E50">
-        <v>0.01213834670093858</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01474095601431442</v>
+      </c>
+      <c r="F50">
+        <v>0.03495821992658592</v>
+      </c>
+      <c r="G50">
+        <v>-0.02212511702635941</v>
+      </c>
+      <c r="H50">
+        <v>0.06430244414015761</v>
+      </c>
+      <c r="I50">
+        <v>0.03412864776207262</v>
+      </c>
+      <c r="J50">
+        <v>0.04207163033160739</v>
+      </c>
+      <c r="K50">
+        <v>0.03172925334590269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03413714092300583</v>
+        <v>0.04050098950752411</v>
       </c>
       <c r="C51">
-        <v>0.007368370003862618</v>
+        <v>0.004479631502933615</v>
       </c>
       <c r="D51">
-        <v>0.0115003457259442</v>
+        <v>0.01153924281468907</v>
       </c>
       <c r="E51">
-        <v>0.001870898814006792</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.02135168575757008</v>
+      </c>
+      <c r="F51">
+        <v>-0.009591830722657789</v>
+      </c>
+      <c r="G51">
+        <v>0.0234200422662141</v>
+      </c>
+      <c r="H51">
+        <v>-0.01068986157866578</v>
+      </c>
+      <c r="I51">
+        <v>-0.005363379061007207</v>
+      </c>
+      <c r="J51">
+        <v>-0.03776007638187071</v>
+      </c>
+      <c r="K51">
+        <v>-0.06035279447856735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1588371963526353</v>
+        <v>0.1588060636030234</v>
       </c>
       <c r="C53">
-        <v>0.03945203306056432</v>
+        <v>-0.01043135487843724</v>
       </c>
       <c r="D53">
-        <v>-0.04413849678424551</v>
+        <v>-0.05754657106208686</v>
       </c>
       <c r="E53">
-        <v>0.01143685192308463</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.002585182462805776</v>
+      </c>
+      <c r="F53">
+        <v>-0.02642678415029607</v>
+      </c>
+      <c r="G53">
+        <v>0.007200508256408718</v>
+      </c>
+      <c r="H53">
+        <v>0.2390848633100863</v>
+      </c>
+      <c r="I53">
+        <v>-0.05650255592143531</v>
+      </c>
+      <c r="J53">
+        <v>0.04912811426177627</v>
+      </c>
+      <c r="K53">
+        <v>-0.07904144679426332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06445789085844515</v>
+        <v>0.0634569197403128</v>
       </c>
       <c r="C54">
-        <v>-0.01595268213225828</v>
+        <v>-0.01208908727006152</v>
       </c>
       <c r="D54">
-        <v>-0.02162173945369487</v>
+        <v>-0.001328407376461035</v>
       </c>
       <c r="E54">
-        <v>0.03206203495920314</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002591133850016657</v>
+      </c>
+      <c r="F54">
+        <v>0.08323300519211424</v>
+      </c>
+      <c r="G54">
+        <v>-0.05559626904054081</v>
+      </c>
+      <c r="H54">
+        <v>0.01093907699424515</v>
+      </c>
+      <c r="I54">
+        <v>0.142210462166019</v>
+      </c>
+      <c r="J54">
+        <v>0.01319289233826739</v>
+      </c>
+      <c r="K54">
+        <v>0.07713638189437258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09686738180746678</v>
+        <v>0.0977311821502472</v>
       </c>
       <c r="C55">
-        <v>0.009640343334353386</v>
+        <v>-0.02130589258847224</v>
       </c>
       <c r="D55">
-        <v>-0.04595918800092784</v>
+        <v>-0.04265447614432423</v>
       </c>
       <c r="E55">
-        <v>0.02598959871049141</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.01016103348200244</v>
+      </c>
+      <c r="F55">
+        <v>0.01641650516270876</v>
+      </c>
+      <c r="G55">
+        <v>-0.03451193711991429</v>
+      </c>
+      <c r="H55">
+        <v>0.1684586213745444</v>
+      </c>
+      <c r="I55">
+        <v>-0.006822952930820653</v>
+      </c>
+      <c r="J55">
+        <v>0.0387300595572207</v>
+      </c>
+      <c r="K55">
+        <v>-0.05683211125420105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.152022878269542</v>
+        <v>0.152654808992242</v>
       </c>
       <c r="C56">
-        <v>0.0394424558396493</v>
+        <v>-0.02668612803766381</v>
       </c>
       <c r="D56">
-        <v>-0.0632635096382085</v>
+        <v>-0.06792044452834964</v>
       </c>
       <c r="E56">
-        <v>0.05168447674812513</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.00703415673063016</v>
+      </c>
+      <c r="F56">
+        <v>-0.001371951721555416</v>
+      </c>
+      <c r="G56">
+        <v>-0.01876661532298376</v>
+      </c>
+      <c r="H56">
+        <v>0.2296813487249734</v>
+      </c>
+      <c r="I56">
+        <v>-0.08238063373429824</v>
+      </c>
+      <c r="J56">
+        <v>0.01095095111121559</v>
+      </c>
+      <c r="K56">
+        <v>-0.04636704568922031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1208571674905332</v>
+        <v>0.08367224322589152</v>
       </c>
       <c r="C58">
-        <v>-0.08631397170455478</v>
+        <v>-0.05403281145508248</v>
       </c>
       <c r="D58">
-        <v>0.08656019572084664</v>
+        <v>0.156602624350108</v>
       </c>
       <c r="E58">
-        <v>0.1232311063597184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.05364603530082974</v>
+      </c>
+      <c r="F58">
+        <v>0.0749577644138197</v>
+      </c>
+      <c r="G58">
+        <v>0.1132040412054559</v>
+      </c>
+      <c r="H58">
+        <v>-0.2323856552061338</v>
+      </c>
+      <c r="I58">
+        <v>0.4470826724947398</v>
+      </c>
+      <c r="J58">
+        <v>-0.03747073742057495</v>
+      </c>
+      <c r="K58">
+        <v>-0.329314284372308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1275558636881365</v>
+        <v>0.1617308591040577</v>
       </c>
       <c r="C59">
-        <v>0.4198779632010105</v>
+        <v>0.3647599144628397</v>
       </c>
       <c r="D59">
-        <v>0.143926126584876</v>
+        <v>0.04465313150583976</v>
       </c>
       <c r="E59">
-        <v>0.06787597824233978</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0180062554820293</v>
+      </c>
+      <c r="F59">
+        <v>-0.01390116538172321</v>
+      </c>
+      <c r="G59">
+        <v>-0.009558260831371651</v>
+      </c>
+      <c r="H59">
+        <v>0.04477088867584972</v>
+      </c>
+      <c r="I59">
+        <v>-0.03349776581176111</v>
+      </c>
+      <c r="J59">
+        <v>-0.06876684717115066</v>
+      </c>
+      <c r="K59">
+        <v>0.001217330046274095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2192042955448693</v>
+        <v>0.2454529119826586</v>
       </c>
       <c r="C60">
-        <v>0.03857503655328109</v>
+        <v>-0.02439633163294847</v>
       </c>
       <c r="D60">
-        <v>-0.05187702186753772</v>
+        <v>-0.09660827451360081</v>
       </c>
       <c r="E60">
-        <v>0.04575621649738976</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.05939228656291277</v>
+      </c>
+      <c r="F60">
+        <v>-0.09229762412362556</v>
+      </c>
+      <c r="G60">
+        <v>0.02510079651516363</v>
+      </c>
+      <c r="H60">
+        <v>-0.1127550447064536</v>
+      </c>
+      <c r="I60">
+        <v>-0.1381605966518372</v>
+      </c>
+      <c r="J60">
+        <v>0.1097024807710258</v>
+      </c>
+      <c r="K60">
+        <v>-0.1090266373433674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.08427912682191441</v>
+        <v>0.0904743445913562</v>
       </c>
       <c r="C61">
-        <v>-0.01262790957251909</v>
+        <v>-0.03415194684731505</v>
       </c>
       <c r="D61">
-        <v>-0.04120911771254009</v>
+        <v>-0.03585095222616946</v>
       </c>
       <c r="E61">
-        <v>0.007498520858738144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.008362099479637133</v>
+      </c>
+      <c r="F61">
+        <v>0.02824763500469593</v>
+      </c>
+      <c r="G61">
+        <v>-0.05083948640945526</v>
+      </c>
+      <c r="H61">
+        <v>0.04735324380746787</v>
+      </c>
+      <c r="I61">
+        <v>0.0506656889395508</v>
+      </c>
+      <c r="J61">
+        <v>-0.07150817656323742</v>
+      </c>
+      <c r="K61">
+        <v>-0.00291897381974812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1524771648539563</v>
+        <v>0.1479429952122873</v>
       </c>
       <c r="C62">
-        <v>0.03047678774483146</v>
+        <v>-0.03129636003402704</v>
       </c>
       <c r="D62">
-        <v>-0.0250202424469919</v>
+        <v>-0.03964270199043486</v>
       </c>
       <c r="E62">
-        <v>0.003195870344801865</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.02079699108505045</v>
+      </c>
+      <c r="F62">
+        <v>-0.04303565989850478</v>
+      </c>
+      <c r="G62">
+        <v>-0.04223292064887008</v>
+      </c>
+      <c r="H62">
+        <v>0.2225530456886491</v>
+      </c>
+      <c r="I62">
+        <v>-0.08893243266728228</v>
+      </c>
+      <c r="J62">
+        <v>0.07184283001802226</v>
+      </c>
+      <c r="K62">
+        <v>-0.02666365365637369</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.05976307604461286</v>
+        <v>0.05305681555433107</v>
       </c>
       <c r="C63">
-        <v>-0.025748130867493</v>
+        <v>-0.02296441115551405</v>
       </c>
       <c r="D63">
-        <v>-0.02231658809592238</v>
+        <v>-0.006433611767616108</v>
       </c>
       <c r="E63">
-        <v>0.007120057839672873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.00958790486318542</v>
+      </c>
+      <c r="F63">
+        <v>0.03051918332322119</v>
+      </c>
+      <c r="G63">
+        <v>-0.05438185146087212</v>
+      </c>
+      <c r="H63">
+        <v>0.01310177366639371</v>
+      </c>
+      <c r="I63">
+        <v>0.04109752524609853</v>
+      </c>
+      <c r="J63">
+        <v>0.03341137158233952</v>
+      </c>
+      <c r="K63">
+        <v>0.04904666727754642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1034753061195137</v>
+        <v>0.1090270560846453</v>
       </c>
       <c r="C64">
-        <v>-0.003962741309485662</v>
+        <v>-0.01913929422271148</v>
       </c>
       <c r="D64">
-        <v>-0.04123283619226539</v>
+        <v>-0.03829150587533664</v>
       </c>
       <c r="E64">
-        <v>0.03559833412611813</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02733122866576261</v>
+      </c>
+      <c r="F64">
+        <v>0.05744283050688125</v>
+      </c>
+      <c r="G64">
+        <v>-0.05318973884870549</v>
+      </c>
+      <c r="H64">
+        <v>-0.02216228966018735</v>
+      </c>
+      <c r="I64">
+        <v>0.05809212502496205</v>
+      </c>
+      <c r="J64">
+        <v>-0.02926910070544653</v>
+      </c>
+      <c r="K64">
+        <v>0.03559320885234255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1264955073517993</v>
+        <v>0.1330296435364135</v>
       </c>
       <c r="C65">
-        <v>-0.01107197428559169</v>
+        <v>-0.00522914909219299</v>
       </c>
       <c r="D65">
-        <v>-0.0450009633281309</v>
+        <v>-0.04819233344338817</v>
       </c>
       <c r="E65">
-        <v>0.05726843294791155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.007738655691295108</v>
+      </c>
+      <c r="F65">
+        <v>0.02635597311690748</v>
+      </c>
+      <c r="G65">
+        <v>-0.07682599644867505</v>
+      </c>
+      <c r="H65">
+        <v>-0.230084489194193</v>
+      </c>
+      <c r="I65">
+        <v>0.01918193310152444</v>
+      </c>
+      <c r="J65">
+        <v>0.6446817299810166</v>
+      </c>
+      <c r="K65">
+        <v>-0.01487661743042638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1608458297033087</v>
+        <v>0.1502438404238786</v>
       </c>
       <c r="C66">
-        <v>-0.05620773465921081</v>
+        <v>-0.09124769579541733</v>
       </c>
       <c r="D66">
-        <v>-0.07540310489345195</v>
+        <v>-0.05321983625158592</v>
       </c>
       <c r="E66">
-        <v>0.01976393126000774</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.001834950287680617</v>
+      </c>
+      <c r="F66">
+        <v>0.02277073576937459</v>
+      </c>
+      <c r="G66">
+        <v>-0.08897140392780295</v>
+      </c>
+      <c r="H66">
+        <v>0.02997807159372836</v>
+      </c>
+      <c r="I66">
+        <v>0.122893699603025</v>
+      </c>
+      <c r="J66">
+        <v>-0.2103387013665951</v>
+      </c>
+      <c r="K66">
+        <v>0.04478374534065478</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09572183197613247</v>
+        <v>0.09800308007596956</v>
       </c>
       <c r="C67">
-        <v>-0.003606831818624054</v>
+        <v>-0.03477560809094223</v>
       </c>
       <c r="D67">
-        <v>0.02300435306091176</v>
+        <v>0.01331882211752887</v>
       </c>
       <c r="E67">
-        <v>-0.00365188811713272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.02056177221722581</v>
+      </c>
+      <c r="F67">
+        <v>-0.009922321615612758</v>
+      </c>
+      <c r="G67">
+        <v>0.01513853881725493</v>
+      </c>
+      <c r="H67">
+        <v>0.01040059766721176</v>
+      </c>
+      <c r="I67">
+        <v>-0.03857643159288566</v>
+      </c>
+      <c r="J67">
+        <v>-0.05232310355001878</v>
+      </c>
+      <c r="K67">
+        <v>0.06713190661862341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.0463417699484098</v>
+        <v>0.07480647412884579</v>
       </c>
       <c r="C68">
-        <v>0.2440751068207775</v>
+        <v>0.2808347408115681</v>
       </c>
       <c r="D68">
-        <v>0.08152054842825432</v>
+        <v>0.03160823549322767</v>
       </c>
       <c r="E68">
-        <v>0.04616979514025078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.009433485141603248</v>
+      </c>
+      <c r="F68">
+        <v>0.04275928446570023</v>
+      </c>
+      <c r="G68">
+        <v>0.002664680615927911</v>
+      </c>
+      <c r="H68">
+        <v>0.0184536892204304</v>
+      </c>
+      <c r="I68">
+        <v>0.02765970450985454</v>
+      </c>
+      <c r="J68">
+        <v>0.03786463650637795</v>
+      </c>
+      <c r="K68">
+        <v>-0.006852606470065819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.0700970985087515</v>
+        <v>0.05793374779388439</v>
       </c>
       <c r="C69">
-        <v>-0.01105546205116972</v>
+        <v>-0.0190126589323903</v>
       </c>
       <c r="D69">
-        <v>-0.001139596467732709</v>
+        <v>0.01907844229604749</v>
       </c>
       <c r="E69">
-        <v>0.009870955758169059</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01343916587383043</v>
+      </c>
+      <c r="F69">
+        <v>0.009309470832236582</v>
+      </c>
+      <c r="G69">
+        <v>-0.0008862298871942846</v>
+      </c>
+      <c r="H69">
+        <v>0.03149612605997031</v>
+      </c>
+      <c r="I69">
+        <v>0.01593823916709747</v>
+      </c>
+      <c r="J69">
+        <v>0.0006663140360737744</v>
+      </c>
+      <c r="K69">
+        <v>-0.005919661908047079</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.0131616266910406</v>
+        <v>0.03468087341087914</v>
       </c>
       <c r="C70">
-        <v>0.007899039737368703</v>
+        <v>0.001619326818726109</v>
       </c>
       <c r="D70">
-        <v>0.009240677666464341</v>
+        <v>0.004736542564886913</v>
       </c>
       <c r="E70">
-        <v>-0.01818766925786714</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.01118842836182965</v>
+      </c>
+      <c r="F70">
+        <v>-0.04462296521945071</v>
+      </c>
+      <c r="G70">
+        <v>0.008425678308662707</v>
+      </c>
+      <c r="H70">
+        <v>-0.03986518219413118</v>
+      </c>
+      <c r="I70">
+        <v>0.007300372279175724</v>
+      </c>
+      <c r="J70">
+        <v>-0.04022171326890547</v>
+      </c>
+      <c r="K70">
+        <v>0.1362072695798471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04144491400253573</v>
+        <v>0.08100062992876364</v>
       </c>
       <c r="C71">
-        <v>0.2724370084877294</v>
+        <v>0.3007720040745781</v>
       </c>
       <c r="D71">
-        <v>0.09313772001230368</v>
+        <v>0.02369509049490727</v>
       </c>
       <c r="E71">
-        <v>0.08829801217872398</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03163080270214647</v>
+      </c>
+      <c r="F71">
+        <v>0.0444792789850704</v>
+      </c>
+      <c r="G71">
+        <v>-0.004103637898924021</v>
+      </c>
+      <c r="H71">
+        <v>0.01798727074337959</v>
+      </c>
+      <c r="I71">
+        <v>0.02758264501365908</v>
+      </c>
+      <c r="J71">
+        <v>0.01194835393736596</v>
+      </c>
+      <c r="K71">
+        <v>0.002999248593695044</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1459691639507731</v>
+        <v>0.1360349318519099</v>
       </c>
       <c r="C72">
-        <v>0.04200169359690509</v>
+        <v>0.002763883126113749</v>
       </c>
       <c r="D72">
-        <v>-0.005361395586523236</v>
+        <v>0.01649305340066721</v>
       </c>
       <c r="E72">
-        <v>-0.2133621113225544</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.1578511240519475</v>
+      </c>
+      <c r="F72">
+        <v>-0.06482922812249067</v>
+      </c>
+      <c r="G72">
+        <v>-0.1253265442173283</v>
+      </c>
+      <c r="H72">
+        <v>0.006080934444406889</v>
+      </c>
+      <c r="I72">
+        <v>-0.02137315454926316</v>
+      </c>
+      <c r="J72">
+        <v>0.1220166974061371</v>
+      </c>
+      <c r="K72">
+        <v>-0.1012306375308762</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2747349781566626</v>
+        <v>0.263929380357303</v>
       </c>
       <c r="C73">
-        <v>0.0003933250044497885</v>
+        <v>-0.08449697962444075</v>
       </c>
       <c r="D73">
-        <v>-0.1134387616968076</v>
+        <v>-0.1548732615217305</v>
       </c>
       <c r="E73">
-        <v>0.05092882375742758</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1096661325648838</v>
+      </c>
+      <c r="F73">
+        <v>-0.2720494611360219</v>
+      </c>
+      <c r="G73">
+        <v>0.2143283820925065</v>
+      </c>
+      <c r="H73">
+        <v>-0.2478200655408263</v>
+      </c>
+      <c r="I73">
+        <v>-0.1272346540064431</v>
+      </c>
+      <c r="J73">
+        <v>-0.1957968507567831</v>
+      </c>
+      <c r="K73">
+        <v>-0.5433781461861407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09044325149248898</v>
+        <v>0.09421434442180324</v>
       </c>
       <c r="C74">
-        <v>0.02569242987476543</v>
+        <v>-0.02353418050859332</v>
       </c>
       <c r="D74">
-        <v>-0.04415779706521383</v>
+        <v>-0.04963796395149001</v>
       </c>
       <c r="E74">
-        <v>0.009930000242226858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.008037599520991534</v>
+      </c>
+      <c r="F74">
+        <v>-0.002426530511002356</v>
+      </c>
+      <c r="G74">
+        <v>0.02133168980743408</v>
+      </c>
+      <c r="H74">
+        <v>0.1425904198215141</v>
+      </c>
+      <c r="I74">
+        <v>0.009224532140807385</v>
+      </c>
+      <c r="J74">
+        <v>0.01242762343730507</v>
+      </c>
+      <c r="K74">
+        <v>-0.06986382982185504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1179229139272178</v>
+        <v>0.104860806441397</v>
       </c>
       <c r="C75">
-        <v>0.00513164433300166</v>
+        <v>-0.0248951568022342</v>
       </c>
       <c r="D75">
-        <v>-0.002150180323908424</v>
+        <v>0.01394148280726088</v>
       </c>
       <c r="E75">
-        <v>0.03092711857260105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.002124230922394419</v>
+      </c>
+      <c r="F75">
+        <v>-0.01298006740961234</v>
+      </c>
+      <c r="G75">
+        <v>0.006597119531762132</v>
+      </c>
+      <c r="H75">
+        <v>0.1235028879411337</v>
+      </c>
+      <c r="I75">
+        <v>-0.04927100345001189</v>
+      </c>
+      <c r="J75">
+        <v>0.03089463317349051</v>
+      </c>
+      <c r="K75">
+        <v>-0.00811943647175568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1436830813370907</v>
+        <v>0.1356150931923385</v>
       </c>
       <c r="C76">
-        <v>0.003431734841810023</v>
+        <v>-0.04664167910572747</v>
       </c>
       <c r="D76">
-        <v>-0.05322884058475157</v>
+        <v>-0.05743205378734828</v>
       </c>
       <c r="E76">
-        <v>0.04363367778694254</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.01205225776411409</v>
+      </c>
+      <c r="F76">
+        <v>0.01375144693561802</v>
+      </c>
+      <c r="G76">
+        <v>-0.03116426557212453</v>
+      </c>
+      <c r="H76">
+        <v>0.2791186134067853</v>
+      </c>
+      <c r="I76">
+        <v>-0.04638868636150786</v>
+      </c>
+      <c r="J76">
+        <v>0.03731995576987646</v>
+      </c>
+      <c r="K76">
+        <v>-0.06272551299980167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1353666800154191</v>
+        <v>0.09829694031201318</v>
       </c>
       <c r="C77">
-        <v>-0.09038645354667461</v>
+        <v>-0.05355553376517026</v>
       </c>
       <c r="D77">
-        <v>0.06508408969078225</v>
+        <v>0.163884114459014</v>
       </c>
       <c r="E77">
-        <v>0.07580803053205655</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.07160361015381259</v>
+      </c>
+      <c r="F77">
+        <v>0.1301073331398979</v>
+      </c>
+      <c r="G77">
+        <v>-0.7020993202488617</v>
+      </c>
+      <c r="H77">
+        <v>-0.2681183449131767</v>
+      </c>
+      <c r="I77">
+        <v>-0.4367516251463303</v>
+      </c>
+      <c r="J77">
+        <v>-0.2149738490888607</v>
+      </c>
+      <c r="K77">
+        <v>-0.05209992932433383</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1157788373090846</v>
+        <v>0.1609670943767394</v>
       </c>
       <c r="C78">
-        <v>-0.05673653215195876</v>
+        <v>-0.06432726011297125</v>
       </c>
       <c r="D78">
-        <v>-0.05557401751399162</v>
+        <v>-0.03486168371436841</v>
       </c>
       <c r="E78">
-        <v>-0.0005954166042500673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.008365398453522476</v>
+      </c>
+      <c r="F78">
+        <v>0.1650868820131358</v>
+      </c>
+      <c r="G78">
+        <v>0.01784003176380877</v>
+      </c>
+      <c r="H78">
+        <v>-0.1452600854761317</v>
+      </c>
+      <c r="I78">
+        <v>0.03122626670522324</v>
+      </c>
+      <c r="J78">
+        <v>0.09649090839561913</v>
+      </c>
+      <c r="K78">
+        <v>0.1128735568797609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1512415184085747</v>
+        <v>0.1455099415690882</v>
       </c>
       <c r="C79">
-        <v>-0.001186413010943645</v>
+        <v>-0.03796090831916318</v>
       </c>
       <c r="D79">
-        <v>-0.06344124998457581</v>
+        <v>-0.0487331745969391</v>
       </c>
       <c r="E79">
-        <v>0.02470288598953446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0005851574976546378</v>
+      </c>
+      <c r="F79">
+        <v>-0.001725839031378028</v>
+      </c>
+      <c r="G79">
+        <v>-0.05213739338988775</v>
+      </c>
+      <c r="H79">
+        <v>0.1937198993936633</v>
+      </c>
+      <c r="I79">
+        <v>-0.05994613124160875</v>
+      </c>
+      <c r="J79">
+        <v>0.06161496638038066</v>
+      </c>
+      <c r="K79">
+        <v>-0.03270755948369033</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0415534414116305</v>
+        <v>0.04336753921714259</v>
       </c>
       <c r="C80">
-        <v>-0.01715295526224171</v>
+        <v>-0.01220128316435772</v>
       </c>
       <c r="D80">
-        <v>-0.01057690742506928</v>
+        <v>-0.02391952854679093</v>
       </c>
       <c r="E80">
-        <v>0.002346025575765835</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.01798459561160268</v>
+      </c>
+      <c r="F80">
+        <v>-0.04272964994206532</v>
+      </c>
+      <c r="G80">
+        <v>-0.01543432712085594</v>
+      </c>
+      <c r="H80">
+        <v>-0.02885999649602901</v>
+      </c>
+      <c r="I80">
+        <v>0.1149922768457446</v>
+      </c>
+      <c r="J80">
+        <v>0.02519294553148723</v>
+      </c>
+      <c r="K80">
+        <v>0.03935461441424332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1364366251267941</v>
+        <v>0.1295739479964747</v>
       </c>
       <c r="C81">
-        <v>0.01137870621760773</v>
+        <v>-0.01932371928867883</v>
       </c>
       <c r="D81">
-        <v>-0.04217376243240114</v>
+        <v>-0.03408751459728181</v>
       </c>
       <c r="E81">
-        <v>0.02730361080994287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.01122080156140859</v>
+      </c>
+      <c r="F81">
+        <v>0.0005210845616563348</v>
+      </c>
+      <c r="G81">
+        <v>-0.01875592975170421</v>
+      </c>
+      <c r="H81">
+        <v>0.1519622063358968</v>
+      </c>
+      <c r="I81">
+        <v>-0.01189908271224429</v>
+      </c>
+      <c r="J81">
+        <v>-0.01896974452352551</v>
+      </c>
+      <c r="K81">
+        <v>-0.008683986842015117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.127159246219027</v>
+        <v>0.1219731182629006</v>
       </c>
       <c r="C82">
-        <v>0.001244416655270799</v>
+        <v>-0.02672570053842172</v>
       </c>
       <c r="D82">
-        <v>-0.03932876577880544</v>
+        <v>-0.04151130064820582</v>
       </c>
       <c r="E82">
-        <v>0.05712575538989304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02549607271112192</v>
+      </c>
+      <c r="F82">
+        <v>-0.01215736547902173</v>
+      </c>
+      <c r="G82">
+        <v>0.006775405763956357</v>
+      </c>
+      <c r="H82">
+        <v>0.2790582049436963</v>
+      </c>
+      <c r="I82">
+        <v>-0.05420003985200799</v>
+      </c>
+      <c r="J82">
+        <v>-0.01674247258559592</v>
+      </c>
+      <c r="K82">
+        <v>-0.01185356075548313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05200492803194631</v>
+        <v>0.07434250853750851</v>
       </c>
       <c r="C83">
-        <v>-0.0135329386620572</v>
+        <v>-0.02758401609069785</v>
       </c>
       <c r="D83">
-        <v>0.0418415326603551</v>
+        <v>0.02241498855560641</v>
       </c>
       <c r="E83">
-        <v>0.01703032141606317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.05059671973669242</v>
+      </c>
+      <c r="F83">
+        <v>-0.04473100500125635</v>
+      </c>
+      <c r="G83">
+        <v>0.05614797877273522</v>
+      </c>
+      <c r="H83">
+        <v>-0.06323974927189832</v>
+      </c>
+      <c r="I83">
+        <v>0.06799379489822115</v>
+      </c>
+      <c r="J83">
+        <v>-0.03807297769266553</v>
+      </c>
+      <c r="K83">
+        <v>0.06042674967075793</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04668967510065399</v>
+        <v>0.03658613106790379</v>
       </c>
       <c r="C84">
-        <v>-0.01705598801818144</v>
+        <v>-0.0419421605007297</v>
       </c>
       <c r="D84">
-        <v>-0.03436530261754348</v>
+        <v>-0.007961243920960249</v>
       </c>
       <c r="E84">
-        <v>-0.05629309302526325</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.05574916632181223</v>
+      </c>
+      <c r="F84">
+        <v>0.02396409844324882</v>
+      </c>
+      <c r="G84">
+        <v>0.02932338337193616</v>
+      </c>
+      <c r="H84">
+        <v>0.01671124597642544</v>
+      </c>
+      <c r="I84">
+        <v>0.1183963394740848</v>
+      </c>
+      <c r="J84">
+        <v>-0.008833458916983252</v>
+      </c>
+      <c r="K84">
+        <v>0.08187748829229113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1177179380910695</v>
+        <v>0.1225284041087181</v>
       </c>
       <c r="C85">
-        <v>-0.02269611567884857</v>
+        <v>-0.03500841228165017</v>
       </c>
       <c r="D85">
-        <v>-0.03079107695818668</v>
+        <v>-0.02198424475012541</v>
       </c>
       <c r="E85">
-        <v>0.07215686480528712</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.03369201112216463</v>
+      </c>
+      <c r="F85">
+        <v>0.0184018250251191</v>
+      </c>
+      <c r="G85">
+        <v>-0.01911647276690706</v>
+      </c>
+      <c r="H85">
+        <v>0.1905791382422687</v>
+      </c>
+      <c r="I85">
+        <v>-0.03250071847163708</v>
+      </c>
+      <c r="J85">
+        <v>0.06685060225582579</v>
+      </c>
+      <c r="K85">
+        <v>-0.03229435059248606</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06813485746450783</v>
+        <v>0.06229559605351844</v>
       </c>
       <c r="C86">
-        <v>-0.05414238868210191</v>
+        <v>-0.03393979695830922</v>
       </c>
       <c r="D86">
-        <v>-0.03067633242007868</v>
+        <v>0.009654887480050967</v>
       </c>
       <c r="E86">
-        <v>0.01761479982022427</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01372411466835707</v>
+      </c>
+      <c r="F86">
+        <v>0.03659439602954327</v>
+      </c>
+      <c r="G86">
+        <v>0.01618678242767311</v>
+      </c>
+      <c r="H86">
+        <v>-0.05428215699417586</v>
+      </c>
+      <c r="I86">
+        <v>-0.06918519864417358</v>
+      </c>
+      <c r="J86">
+        <v>0.04880695931687817</v>
+      </c>
+      <c r="K86">
+        <v>0.1457314946304961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1355276994949846</v>
+        <v>0.1333159519585137</v>
       </c>
       <c r="C87">
-        <v>-0.04898746405671027</v>
+        <v>-0.06753309944516485</v>
       </c>
       <c r="D87">
-        <v>-0.07912172388109713</v>
+        <v>-0.02272145928989705</v>
       </c>
       <c r="E87">
-        <v>0.02783744099325654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0023428364718836</v>
+      </c>
+      <c r="F87">
+        <v>0.09346523340053488</v>
+      </c>
+      <c r="G87">
+        <v>-0.1582269120683955</v>
+      </c>
+      <c r="H87">
+        <v>-0.07824083144884555</v>
+      </c>
+      <c r="I87">
+        <v>-0.02263113164259132</v>
+      </c>
+      <c r="J87">
+        <v>-0.02183064015062748</v>
+      </c>
+      <c r="K87">
+        <v>-0.004793075512118033</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06229703598831792</v>
+        <v>0.06563118947417085</v>
       </c>
       <c r="C88">
-        <v>-0.02137593375879681</v>
+        <v>-0.03890592538558943</v>
       </c>
       <c r="D88">
-        <v>-0.0206669450985978</v>
+        <v>-0.02420224133549244</v>
       </c>
       <c r="E88">
-        <v>0.008904502143303804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01423523385383746</v>
+      </c>
+      <c r="F88">
+        <v>-1.10845931343636e-05</v>
+      </c>
+      <c r="G88">
+        <v>-0.02565938201925387</v>
+      </c>
+      <c r="H88">
+        <v>0.02219800102170565</v>
+      </c>
+      <c r="I88">
+        <v>0.04731247006393945</v>
+      </c>
+      <c r="J88">
+        <v>-0.02079257506920945</v>
+      </c>
+      <c r="K88">
+        <v>0.02618139814084798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.0707908413149316</v>
+        <v>0.1282786851222567</v>
       </c>
       <c r="C89">
-        <v>0.3087523583163999</v>
+        <v>0.3773625319982424</v>
       </c>
       <c r="D89">
-        <v>0.09777361819755014</v>
+        <v>0.02382048278334937</v>
       </c>
       <c r="E89">
-        <v>0.1133033972666025</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.07592559622185155</v>
+      </c>
+      <c r="F89">
+        <v>0.06099863369596942</v>
+      </c>
+      <c r="G89">
+        <v>0.01540050652569468</v>
+      </c>
+      <c r="H89">
+        <v>0.0012146911678524</v>
+      </c>
+      <c r="I89">
+        <v>0.07921657885662216</v>
+      </c>
+      <c r="J89">
+        <v>-0.07001041554925788</v>
+      </c>
+      <c r="K89">
+        <v>-0.01787309993111971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06232665942109245</v>
+        <v>0.09302636007003695</v>
       </c>
       <c r="C90">
-        <v>0.2638726719606366</v>
+        <v>0.2825639292775221</v>
       </c>
       <c r="D90">
-        <v>0.1120034622582625</v>
+        <v>0.04398458564418119</v>
       </c>
       <c r="E90">
-        <v>0.0673908484513159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.03565753179372962</v>
+      </c>
+      <c r="F90">
+        <v>0.02644942452138021</v>
+      </c>
+      <c r="G90">
+        <v>-0.0184581531180034</v>
+      </c>
+      <c r="H90">
+        <v>-0.03702946051779716</v>
+      </c>
+      <c r="I90">
+        <v>0.07676107017413153</v>
+      </c>
+      <c r="J90">
+        <v>-0.04326251007679516</v>
+      </c>
+      <c r="K90">
+        <v>-0.02259513270424183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1059498737203771</v>
+        <v>0.09341023438668564</v>
       </c>
       <c r="C91">
-        <v>0.006922943312174662</v>
+        <v>-0.02812890833049103</v>
       </c>
       <c r="D91">
-        <v>-0.03486972239117885</v>
+        <v>-0.01927651506432169</v>
       </c>
       <c r="E91">
-        <v>0.02009763459715617</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.002488355455011788</v>
+      </c>
+      <c r="F91">
+        <v>-0.005135830041949365</v>
+      </c>
+      <c r="G91">
+        <v>0.01313498489382933</v>
+      </c>
+      <c r="H91">
+        <v>0.08373206745717057</v>
+      </c>
+      <c r="I91">
+        <v>-0.03895008437861635</v>
+      </c>
+      <c r="J91">
+        <v>0.002217923768131245</v>
+      </c>
+      <c r="K91">
+        <v>-0.03740104263970426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.05263838757126742</v>
+        <v>0.09299150114150806</v>
       </c>
       <c r="C92">
-        <v>0.3200227128971668</v>
+        <v>0.3353005213327316</v>
       </c>
       <c r="D92">
-        <v>0.08669308542901397</v>
+        <v>0.01644459536245033</v>
       </c>
       <c r="E92">
-        <v>0.08974964055204135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03164009296387645</v>
+      </c>
+      <c r="F92">
+        <v>0.05092876146922877</v>
+      </c>
+      <c r="G92">
+        <v>-0.004433823552396597</v>
+      </c>
+      <c r="H92">
+        <v>0.01534236171149961</v>
+      </c>
+      <c r="I92">
+        <v>0.02391395887615959</v>
+      </c>
+      <c r="J92">
+        <v>-0.02570066920455771</v>
+      </c>
+      <c r="K92">
+        <v>-0.008549677760755327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.04696955759208515</v>
+        <v>0.09220669937599305</v>
       </c>
       <c r="C93">
-        <v>0.2948333175877587</v>
+        <v>0.3214233251369202</v>
       </c>
       <c r="D93">
-        <v>0.08582268486236254</v>
+        <v>0.009503566251308443</v>
       </c>
       <c r="E93">
-        <v>0.06382939703867008</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02869521297392387</v>
+      </c>
+      <c r="F93">
+        <v>0.01515175504117566</v>
+      </c>
+      <c r="G93">
+        <v>-0.002658311895939582</v>
+      </c>
+      <c r="H93">
+        <v>-0.007532692891134617</v>
+      </c>
+      <c r="I93">
+        <v>0.01265628379311926</v>
+      </c>
+      <c r="J93">
+        <v>0.001911112540516459</v>
+      </c>
+      <c r="K93">
+        <v>0.02445231930530271</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1256706705757215</v>
+        <v>0.122499209667137</v>
       </c>
       <c r="C94">
-        <v>-0.03856627554767474</v>
+        <v>-0.04863960095557692</v>
       </c>
       <c r="D94">
-        <v>-0.04483325908432747</v>
+        <v>-0.01815438546568816</v>
       </c>
       <c r="E94">
-        <v>0.04030310416887681</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.01626237904999536</v>
+      </c>
+      <c r="F94">
+        <v>0.0183232573102605</v>
+      </c>
+      <c r="G94">
+        <v>0.05182071571559348</v>
+      </c>
+      <c r="H94">
+        <v>0.1182919588221121</v>
+      </c>
+      <c r="I94">
+        <v>-0.0352649292503737</v>
+      </c>
+      <c r="J94">
+        <v>0.02034578108037286</v>
+      </c>
+      <c r="K94">
+        <v>-0.02997130687662962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1277584684379567</v>
+        <v>0.1387395951007038</v>
       </c>
       <c r="C95">
-        <v>-0.06433935078011495</v>
+        <v>-0.06428051319369485</v>
       </c>
       <c r="D95">
-        <v>-0.08367593256172712</v>
+        <v>-0.03291901607836389</v>
       </c>
       <c r="E95">
-        <v>0.05067045514977506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.02519735115101306</v>
+      </c>
+      <c r="F95">
+        <v>0.05372439481252669</v>
+      </c>
+      <c r="G95">
+        <v>-0.03084206517253869</v>
+      </c>
+      <c r="H95">
+        <v>-0.1562306115256509</v>
+      </c>
+      <c r="I95">
+        <v>0.06287767339498646</v>
+      </c>
+      <c r="J95">
+        <v>0.006497990290078427</v>
+      </c>
+      <c r="K95">
+        <v>0.06905900090361422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2451247730068948</v>
+        <v>0.180237071736415</v>
       </c>
       <c r="C97">
-        <v>0.1419987506277389</v>
+        <v>0.04153178759385265</v>
       </c>
       <c r="D97">
-        <v>0.05197613684575417</v>
+        <v>0.2050199451928585</v>
       </c>
       <c r="E97">
-        <v>-0.8957813073558886</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.8770594384664582</v>
+      </c>
+      <c r="F97">
+        <v>-0.2604034143987577</v>
+      </c>
+      <c r="G97">
+        <v>-0.07851126377793273</v>
+      </c>
+      <c r="H97">
+        <v>-0.04389113148707923</v>
+      </c>
+      <c r="I97">
+        <v>0.07871459519174201</v>
+      </c>
+      <c r="J97">
+        <v>-0.02454876098391338</v>
+      </c>
+      <c r="K97">
+        <v>-0.01636732205339623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2729568100806659</v>
+        <v>0.2841117643451255</v>
       </c>
       <c r="C98">
-        <v>-0.007355933613062507</v>
+        <v>-0.0665503187517134</v>
       </c>
       <c r="D98">
-        <v>-0.02330257124508697</v>
+        <v>-0.0749943694709951</v>
       </c>
       <c r="E98">
-        <v>0.02954664812545262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.05983584101361314</v>
+      </c>
+      <c r="F98">
+        <v>-0.2946652923630287</v>
+      </c>
+      <c r="G98">
+        <v>0.3004174354067125</v>
+      </c>
+      <c r="H98">
+        <v>-0.2006961793523913</v>
+      </c>
+      <c r="I98">
+        <v>-0.2048215855569802</v>
+      </c>
+      <c r="J98">
+        <v>-0.1791162630007101</v>
+      </c>
+      <c r="K98">
+        <v>0.5842094429609435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2255219098387139</v>
+        <v>0.1557262850424249</v>
       </c>
       <c r="C99">
-        <v>-0.3331655047199488</v>
+        <v>-0.1236567022255502</v>
       </c>
       <c r="D99">
-        <v>0.8761131563069789</v>
+        <v>0.8470703363559381</v>
       </c>
       <c r="E99">
-        <v>0.04683630688969284</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.3025515415330786</v>
+      </c>
+      <c r="F99">
+        <v>-0.2493015496768505</v>
+      </c>
+      <c r="G99">
+        <v>0.04377251750952095</v>
+      </c>
+      <c r="H99">
+        <v>0.1200774639477266</v>
+      </c>
+      <c r="I99">
+        <v>0.04261025794657457</v>
+      </c>
+      <c r="J99">
+        <v>0.09174237315851996</v>
+      </c>
+      <c r="K99">
+        <v>0.01413002279212798</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.0578036149533458</v>
+        <v>0.05576559665091676</v>
       </c>
       <c r="C101">
-        <v>0.01178171928839279</v>
+        <v>-0.007361553127235657</v>
       </c>
       <c r="D101">
-        <v>-0.03345633327996805</v>
+        <v>-0.0296154313518295</v>
       </c>
       <c r="E101">
-        <v>0.02379416568339818</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.005708589308849181</v>
+      </c>
+      <c r="F101">
+        <v>0.04512887679136553</v>
+      </c>
+      <c r="G101">
+        <v>-0.03065122716128295</v>
+      </c>
+      <c r="H101">
+        <v>0.0626317912727619</v>
+      </c>
+      <c r="I101">
+        <v>0.04655184257204575</v>
+      </c>
+      <c r="J101">
+        <v>0.01291126278205538</v>
+      </c>
+      <c r="K101">
+        <v>0.0476684056889786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
